--- a/product_data/processing_metadata/C6/CG.xlsx
+++ b/product_data/processing_metadata/C6/CG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{500CEB78-F4CF-4F1A-8A85-4D7C717804B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{500CEB78-F4CF-4F1A-8A85-4D7C717804B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{102CE75D-C1E7-47E9-B82E-3C48012A8F3F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DE820593-4D9D-43A7-8400-B23737734704}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="127">
   <si>
     <t>318M20110220</t>
   </si>
@@ -416,9 +416,6 @@
   </si>
   <si>
     <t>10.1594/PANGAEA.836838</t>
-  </si>
-  <si>
-    <t>61TG19990131</t>
   </si>
 </sst>
 </file>
@@ -786,19 +783,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564A8D10-02C4-4B3F-9524-E5177F48B7E5}">
-  <dimension ref="A2:BA29"/>
+  <dimension ref="A3:BA29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="2" spans="1:53">
-      <c r="E2" t="s">
-        <v>127</v>
-      </c>
-    </row>
     <row r="3" spans="1:53">
       <c r="A3" t="s">
         <v>26</v>
